--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talew\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talew\Desktop\BankTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6650D6-63F9-4CA2-AAD2-870B416CDF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AF40C4-7982-4039-8D2B-F355511073CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{F9DB6327-6487-4689-B90A-F0EFE5203595}"/>
   </bookViews>
@@ -1516,6 +1516,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1543,10 +1547,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1894,7 +1894,7 @@
       <c r="F9" s="26"/>
     </row>
     <row r="10" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="32" t="s">
         <v>152</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -1903,7 +1903,7 @@
       <c r="F10" s="26"/>
     </row>
     <row r="11" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="31"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="21" t="s">
         <v>160</v>
       </c>
@@ -1912,7 +1912,7 @@
       </c>
     </row>
     <row r="12" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="31"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="21" t="s">
         <v>161</v>
       </c>
@@ -1921,14 +1921,14 @@
       </c>
     </row>
     <row r="13" spans="4:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="31"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="21" t="s">
         <v>162</v>
       </c>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="4:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="32"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
@@ -1972,55 +1972,55 @@
       <c r="A2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="36"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="36"/>
     </row>
     <row r="5" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="39">
         <v>44983</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:14" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
@@ -2994,7 +2994,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3146,17 +3146,17 @@
       <c r="A6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="30" t="s">
         <v>246</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="40"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="12" t="s">
         <v>249</v>
       </c>
